--- a/Flood_Freq.xlsx
+++ b/Flood_Freq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claremurphy-hagan/Desktop/Papers/C-Q_v2/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claremurphy-hagan/Desktop/Papers/C-Q_v2/Response to Reviews_JOH_Rejection/Rescaled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FEFABFA-A91D-3441-ABC2-CE5F4E36017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7CCCB4-21EC-C343-B712-F032490DB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" activeTab="1" xr2:uid="{3A4CF0DE-5079-4242-96F7-F0580ECD8123}"/>
+    <workbookView xWindow="-26620" yWindow="500" windowWidth="25140" windowHeight="19660" activeTab="1" xr2:uid="{3A4CF0DE-5079-4242-96F7-F0580ECD8123}"/>
   </bookViews>
   <sheets>
     <sheet name="SAD_2004-2023" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>Water Year</t>
   </si>
@@ -78,13 +78,29 @@
   <si>
     <t>San Diego Creek @ Campus Ave</t>
   </si>
+  <si>
+    <t>2-Year Flood Linear Interpolation</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>cms</t>
+  </si>
+  <si>
+    <t>y=mx+b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,16 +135,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,7 +211,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -181,13 +225,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>San</a:t>
+              <a:t>Santa Ana Delhi Channel @ Irvine Ave</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Diego Creek @ Campus Ave</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -204,7 +243,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -262,6 +301,765 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0438F884-FB89-A048-8C9B-EA7C3B35F405}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4D38E380-4C08-014B-9F18-2FD2D637F9D5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{46975B4D-EC56-8444-B4A2-A7B07D0BFC73}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{42F5DF3C-CC01-0D41-AF01-40A1C9601EE8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{266F413A-5E5A-3B48-A06B-E16750878BE0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BCC49C99-AFA6-DF46-BCF0-E155092D8978}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B9949C75-DF0A-1247-AFCF-0179F4767560}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CDAA9B09-750A-FA4B-ACD0-60CF40B1FF5C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2E2BB7C7-61A3-6A48-A175-AB811A5088D0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DEAC4342-E3BD-6B43-9CBE-9B7A41526289}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{90FEF911-B88E-8041-B6C2-BF9DD2AAC2BC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{33CEBD85-DCB7-A547-ABB6-7F239222B584}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DD8ADEB1-33A1-0749-94E2-65ECA93E842A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F376A699-C9BA-BF48-82D0-C7CA06BEB770}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{FC2138ED-E80E-B941-A7BC-8F3C3EF32C79}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{35574D92-4D03-224E-80A5-3EF5D0AEC121}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E58D0D88-884C-0A46-9C2A-9DCB750B7998}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{915D7C4B-774F-E24D-92F9-5F6A08B998BB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C286BFE4-1C1D-9E40-8058-2342501F55E9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-81F8-084B-AC50-476FB18BB143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'SAD_2004-2023'!$B$26:$B$45</c:f>
@@ -269,61 +1067,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.7619047619047619</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5238095238095237</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.285714285714285</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.047619047619047</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.809523809523807</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.571428571428569</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.095238095238095</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.857142857142854</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.619047619047613</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.380952380952387</c:v>
+                  <c:v>55.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.142857142857139</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.904761904761905</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.666666666666657</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.428571428571431</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.19047619047619</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.952380952380949</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.714285714285708</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90.476190476190482</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,6 +1194,71 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'SAD_2004-2023'!$A$4:$A$22</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="19"/>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3B85-A049-B2A4-5FAB17A88A59}"/>
             </c:ext>
@@ -455,7 +1318,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -468,7 +1331,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Exceedance Probability (%)</a:t>
                 </a:r>
               </a:p>
@@ -487,7 +1350,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -525,7 +1388,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -573,7 +1436,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -586,7 +1449,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Discharge (cms)</a:t>
                 </a:r>
               </a:p>
@@ -605,7 +1468,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -643,7 +1506,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -703,7 +1566,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -737,7 +1600,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -751,13 +1614,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>San</a:t>
+              <a:t>San Diego Creek @ Campus Ave</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Diego Creek @ Campus Ave</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -774,7 +1632,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -832,6 +1690,786 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3D829249-4695-FD47-98DB-465F0C8DE85A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{17315B63-0F97-AD4F-A09B-70CB0BE0A752}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2DCAC6E9-A100-5943-B0DD-E37AB3628B9F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{734E3D9B-C735-8747-B655-A9EDF2784842}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{51336EE1-58C2-314D-876F-75FD14737674}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2041B706-7ABF-7F4D-9284-F069D8955EAB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0BD15E4B-49D3-9C44-8797-2F4E4DED292E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{076D8510-E39F-4845-9BCC-9C2745AF838D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C53738BD-9E33-4C4A-BBE8-D45FF2392C15}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{903F672F-307D-E848-8B11-37A8B8B9694C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6EF8D49E-A525-4B4A-9EC6-DDCA641E53AB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2152AC46-9FEA-D643-BB7C-A0E3CF31ABA6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{56E4FA4E-4B16-9F45-BC07-F425FDF6B426}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B5BF4625-F580-534B-A3C1-E7203A19AD68}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F8F60607-5909-C141-A747-1AFCC18AE3DF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{387B7F8D-5BDF-C540-A0E6-D448CDCA8C5D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{979D22A0-8B90-7843-88EA-19091B219769}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8418604651162827E-2"/>
+                  <c:y val="-5.155749636098992E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5BC62AE7-7095-B241-A1A6-EC83430EAB61}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2139534883720964E-2"/>
+                  <c:y val="-4.8646288209607091E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2ACB8945-9CE8-634F-BD3E-49C4128949C1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5860465116279052E-2"/>
+                  <c:y val="-4.2823871906841234E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A38FA6BC-6E0C-EB44-9A33-CD8F5B32059B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-5F80-A944-AC71-B8DC271E7EDB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'SDC_2004-2023'!$B$27:$B$46</c:f>
@@ -972,6 +2610,74 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'SDC_2004-2023'!$A$4:$A$23</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D915-7246-9210-BC900546D9D7}"/>
             </c:ext>
@@ -1031,7 +2737,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1044,7 +2750,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Exceedance Probability (%)</a:t>
                 </a:r>
               </a:p>
@@ -1063,7 +2769,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1101,7 +2807,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1149,7 +2855,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1162,7 +2868,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Discharge (cms)</a:t>
                 </a:r>
               </a:p>
@@ -1181,7 +2887,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1219,7 +2925,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1279,7 +2985,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2444,6 +4150,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351D2649-69B2-20C2-85C2-48C41E9CBC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="4876800"/>
+          <a:ext cx="6896100" cy="4368800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2485,6 +4235,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC41DC48-4FFD-480D-C539-90437FA15987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12547600" y="5080000"/>
+          <a:ext cx="6832600" cy="4368800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2790,13 +4584,14 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2809,522 +4604,541 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2018</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>43371.003611111111</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>6622.3810000000003</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E22" si="0">C4*0.028316846592</f>
         <v>187.52494685077556</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <f t="shared" ref="G4:G22" si="1">F4/($B$1+1)</f>
         <v>0.05</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H22" si="2">1/G4</f>
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2010</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>40196.621678240743</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>4795.058</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="3"/>
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>135.78092178574235</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2005</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>38352.514293981483</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>4297.8879999999999</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="3"/>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>121.7026351655977</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>2019</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>43440.507430555554</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>4226.1570000000002</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="3"/>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>119.67143944270695</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>2017</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>42757.649537037039</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>4052.701</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="3"/>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>114.759712500245</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>2009</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>39778.031527777777</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>3301.6529999999998</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="3"/>
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>93.492401501016573</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>2023</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>44982.111458333333</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>2420</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="3"/>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>68.526768752639995</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>7</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>2008</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>39452.097256944442</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>2393.0039999999999</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="3"/>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>67.762327162042368</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>2007</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>39347.069907407407</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>2336.1480000000001</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="3"/>
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>66.152344532207621</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>9</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>2016</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>42375.559699074074</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>1994.413</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="3"/>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>56.4754869620905</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>10</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>2020</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>43825.149178240739</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1870.2260000000001</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="3"/>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>52.958902734369794</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>11</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <f t="shared" si="2"/>
         <v>1.8181818181818181</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>2011</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>40534.143553240741</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>1819.107</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="3"/>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>51.511373853433348</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>12</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>2022</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>44544.440972222219</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>1286.8</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="3"/>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>36.438118194585599</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>13</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <f t="shared" si="2"/>
         <v>1.5384615384615383</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>2015</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>42262.254837962966</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>1106.5540000000001</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="3"/>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>31.33411986376397</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>14</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>2021</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>44193.736111111109</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>944.95</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="3"/>
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>26.758004187110402</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>15</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="7">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>2014</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>41698.442800925928</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>854.10400000000004</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="3"/>
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>24.185531941613569</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>16</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>2006</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>38787.504571759258</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>760.12900000000002</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="3"/>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>21.52445628313037</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>17</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>1.1764705882352942</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>2012</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>40867.728275462963</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>660.14499999999998</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="3"/>
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>18.693224693475841</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>18</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="6">
         <f t="shared" si="2"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>2013</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>41267.335636574076</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>559.29600000000005</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="3"/>
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>15.837499031519235</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>19</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>1.0526315789473684</v>
       </c>
@@ -3350,7 +5164,8 @@
         <v>0.05</v>
       </c>
       <c r="B26">
-        <v>4.7619047619047619</v>
+        <f>A26*100</f>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>187.52494685077556</v>
@@ -3361,7 +5176,8 @@
         <v>0.1</v>
       </c>
       <c r="B27">
-        <v>9.5238095238095237</v>
+        <f t="shared" ref="B27:B44" si="3">A27*100</f>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>135.78092178574235</v>
@@ -3372,7 +5188,8 @@
         <v>0.15</v>
       </c>
       <c r="B28">
-        <v>14.285714285714285</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>121.7026351655977</v>
@@ -3383,7 +5200,8 @@
         <v>0.2</v>
       </c>
       <c r="B29">
-        <v>19.047619047619047</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>119.67143944270695</v>
@@ -3394,7 +5212,8 @@
         <v>0.25</v>
       </c>
       <c r="B30">
-        <v>23.809523809523807</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>114.759712500245</v>
@@ -3405,7 +5224,8 @@
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>28.571428571428569</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>93.492401501016573</v>
@@ -3416,139 +5236,182 @@
         <v>0.35</v>
       </c>
       <c r="B32">
-        <v>33.333333333333329</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>68.526768752639995</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.4</v>
       </c>
       <c r="B33">
-        <v>38.095238095238095</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>67.762327162042368</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.45</v>
       </c>
       <c r="B34">
-        <v>42.857142857142854</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>66.152344532207621</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.5</v>
       </c>
       <c r="B35">
-        <v>47.619047619047613</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>56.4754869620905</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f>SLOPE(C35:C36,B35:B36)</f>
+        <v>-0.7033168455441402</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.55000000000000004</v>
       </c>
       <c r="B36">
-        <v>52.380952380952387</v>
+        <f t="shared" si="3"/>
+        <v>55.000000000000007</v>
       </c>
       <c r="C36">
         <v>52.958902734369794</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f>INTERCEPT(C35:C36,B35:B36)</f>
+        <v>91.641329239297505</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.6</v>
       </c>
       <c r="B37">
-        <v>57.142857142857139</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="C37">
         <v>51.511373853433348</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f>(50*D35)+D36</f>
+        <v>56.475486962090493</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.65</v>
       </c>
       <c r="B38">
-        <v>61.904761904761905</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>36.438118194585599</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="2">
+        <v>56</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.7</v>
       </c>
       <c r="B39">
-        <v>66.666666666666657</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>31.33411986376397</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.75</v>
       </c>
       <c r="B40">
-        <v>71.428571428571431</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>26.758004187110402</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.8</v>
       </c>
       <c r="B41">
-        <v>76.19047619047619</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>24.185531941613569</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.85</v>
       </c>
       <c r="B42">
-        <v>80.952380952380949</v>
+        <f t="shared" si="3"/>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>21.52445628313037</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.9</v>
       </c>
       <c r="B43">
-        <v>85.714285714285708</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>18.693224693475841</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.95</v>
       </c>
       <c r="B44">
-        <v>90.476190476190482</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>15.837499031519235</v>
@@ -3569,14 +5432,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6922A49-E180-4648-83C1-FABDF4FAC1E6}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3589,608 +5452,608 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2011</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>40534.22384259259</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>37105.305</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E23" si="0">C4*0.028316846592</f>
+      <c r="E4" s="5">
+        <f>C4*0.028316846592</f>
         <v>1050.7052294343705</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <f>F4/($B$1+1)</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <f>1/G4</f>
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2016</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>42626.378310185188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>36000</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
+        <f>C5*0.028316846592</f>
+        <v>1019.406477312</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G23" si="0">F5/($B$1+1)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H23" si="1">1/G5</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="4">
+        <v>40196.649953703702</v>
+      </c>
+      <c r="C6" s="3">
+        <v>21857.010999999999</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <f>C6*0.028316846592</f>
+        <v>618.92162744665654</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>1019.406477312</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G23" si="1">F5/($B$1+1)</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" ref="H5:H23" si="2">1/G5</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="1">
-        <v>40196.649953703702</v>
-      </c>
-      <c r="C6">
-        <v>21857.010999999999</v>
-      </c>
-      <c r="D6" t="s">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42757.761493055557</v>
+      </c>
+      <c r="C7" s="3">
+        <v>16694.045999999998</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="5">
+        <f>C7*0.028316846592</f>
+        <v>472.72273958179119</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>618.92162744665654</v>
-      </c>
-      <c r="F6">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43510.309027777781</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15256.816000000001</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="E8" s="5">
+        <f>C8*0.028316846592</f>
+        <v>432.02491815437111</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>38402.47142361111</v>
+      </c>
+      <c r="C9" s="3">
+        <v>13816.466</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <f>C9*0.028316846592</f>
+        <v>391.2387481655839</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44544.548611111109</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12158.133</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <f>C10*0.028316846592</f>
+        <v>344.27998700613273</v>
+      </c>
+      <c r="F10" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="1">
-        <v>42757.761493055557</v>
-      </c>
-      <c r="C7">
-        <v>16694.045999999998</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45000.267361111109</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10475.031000000001</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <f>C11*0.028316846592</f>
+        <v>296.61984587344438</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B12" s="4">
+        <v>38043.218738425923</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7453.0060000000003</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E12" s="5">
+        <f>C12*0.028316846592</f>
+        <v>211.04562755125556</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>472.72273958179119</v>
-      </c>
-      <c r="F7">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>39797.456921296296</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7204.5389999999998</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="E13" s="5">
+        <f>C13*0.028316846592</f>
+        <v>204.00982562908109</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43510.309027777781</v>
-      </c>
-      <c r="C8">
-        <v>15256.816000000001</v>
-      </c>
-      <c r="D8" t="s">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="4">
+        <v>41698.452002314814</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6003.5730000000003</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <f>C14*0.028316846592</f>
+        <v>170.00225564487323</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9090909090909089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="4">
+        <v>39452.141435185185</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5103.3469999999998</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
+        <f>C15*0.028316846592</f>
+        <v>144.51069410474341</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="4">
+        <v>43825.28125</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4964.6220000000003</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E16" s="5">
+        <f>C16*0.028316846592</f>
+        <v>140.58243956126825</v>
+      </c>
+      <c r="F16" s="3">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>432.02491815437111</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="1">
-        <v>38402.47142361111</v>
-      </c>
-      <c r="C9">
-        <v>13816.466</v>
-      </c>
-      <c r="D9" t="s">
+        <v>1.6153846153846154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="4">
+        <v>41985.517372685186</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4561.2219999999998</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E17" s="5">
+        <f>C17*0.028316846592</f>
+        <v>129.15942364605542</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>391.2387481655839</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44544.548611111109</v>
-      </c>
-      <c r="C10">
-        <v>12158.133</v>
-      </c>
-      <c r="D10" t="s">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="4">
+        <v>38811.651655092595</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4043.9659999999999</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5">
+        <f>C18*0.028316846592</f>
+        <v>114.51236484526387</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B19" s="4">
+        <v>41012.659120370372</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2539.8139999999999</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <f>C19*0.028316846592</f>
+        <v>71.919523410213884</v>
+      </c>
+      <c r="F19" s="3">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44225.232638888891</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1873.202</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E20" s="5">
+        <f>C20*0.028316846592</f>
+        <v>53.043173669827588</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>344.27998700613273</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45000.267361111109</v>
-      </c>
-      <c r="C11">
-        <v>10475.031000000001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
+        <v>1.2352941176470589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B21" s="4">
+        <v>39347.114432870374</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1631.2280000000001</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <f>C21*0.028316846592</f>
+        <v>46.191233032574978</v>
+      </c>
+      <c r="F21" s="3">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>296.61984587344438</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.38095238095238093</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>2.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2004</v>
-      </c>
-      <c r="B12" s="1">
-        <v>38043.218738425923</v>
-      </c>
-      <c r="C12">
-        <v>7453.0060000000003</v>
-      </c>
-      <c r="D12" t="s">
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>43109.739976851852</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1614.134</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="E22" s="5">
+        <f>C22*0.028316846592</f>
+        <v>45.707184856931327</v>
+      </c>
+      <c r="F22" s="3">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>211.04562755125556</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="1">
-        <v>39797.456921296296</v>
-      </c>
-      <c r="C13">
-        <v>7204.5389999999998</v>
-      </c>
-      <c r="D13" t="s">
+        <v>1.1052631578947367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B23" s="4">
+        <v>41538.611689814818</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1571.204</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="E23" s="5">
+        <f>C23*0.028316846592</f>
+        <v>44.491542632736767</v>
+      </c>
+      <c r="F23" s="3">
+        <v>20</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>204.00982562908109</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="2"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="1">
-        <v>41698.452002314814</v>
-      </c>
-      <c r="C14">
-        <v>6003.5730000000003</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>170.00225564487323</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="2"/>
-        <v>1.9090909090909089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2008</v>
-      </c>
-      <c r="B15" s="1">
-        <v>39452.141435185185</v>
-      </c>
-      <c r="C15">
-        <v>5103.3469999999998</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>144.51069410474341</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43825.28125</v>
-      </c>
-      <c r="C16">
-        <v>4964.6220000000003</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>140.58243956126825</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.61904761904761907</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6153846153846154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="1">
-        <v>41985.517372685186</v>
-      </c>
-      <c r="C17">
-        <v>4561.2219999999998</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>129.15942364605542</v>
-      </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="1">
-        <v>38811.651655092595</v>
-      </c>
-      <c r="C18">
-        <v>4043.9659999999999</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>114.51236484526387</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2012</v>
-      </c>
-      <c r="B19" s="1">
-        <v>41012.659120370372</v>
-      </c>
-      <c r="C19">
-        <v>2539.8139999999999</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>71.919523410213884</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0.76190476190476186</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2021</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44225.232638888891</v>
-      </c>
-      <c r="C20">
-        <v>1873.202</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>53.043173669827588</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2352941176470589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2007</v>
-      </c>
-      <c r="B21" s="1">
-        <v>39347.114432870374</v>
-      </c>
-      <c r="C21">
-        <v>1631.2280000000001</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>46.191233032574978</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43109.739976851852</v>
-      </c>
-      <c r="C22">
-        <v>1614.134</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>45.707184856931327</v>
-      </c>
-      <c r="F22">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0.90476190476190477</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1052631578947367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2013</v>
-      </c>
-      <c r="B23" s="1">
-        <v>41538.611689814818</v>
-      </c>
-      <c r="C23">
-        <v>1571.204</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>44.491542632736767</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="2"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4276,7 +6139,7 @@
         <v>391.2387481655839</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.33333333333333331</v>
       </c>
@@ -4287,7 +6150,7 @@
         <v>344.27998700613273</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.38095238095238093</v>
       </c>
@@ -4298,7 +6161,7 @@
         <v>296.61984587344438</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.42857142857142855</v>
       </c>
@@ -4308,8 +6171,11 @@
       <c r="C35">
         <v>211.04562755125556</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.47619047619047616</v>
       </c>
@@ -4323,8 +6189,11 @@
         <f>SLOPE(C36:C37,B36:B37)</f>
         <v>-7.1415896966836341</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.52380952380952384</v>
       </c>
@@ -4338,8 +6207,11 @@
         <f>INTERCEPT(C36:C37,B36:B37)</f>
         <v>544.08552547115892</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.5714285714285714</v>
       </c>
@@ -4349,12 +6221,15 @@
       <c r="C38">
         <v>144.51069410474341</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38">
         <f>(50*D36)+D37</f>
         <v>187.00604063697722</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.61904761904761907</v>
       </c>
@@ -4364,8 +6239,14 @@
       <c r="C39">
         <v>140.58243956126825</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="2">
+        <v>190</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.66666666666666663</v>
       </c>
@@ -4376,7 +6257,7 @@
         <v>129.15942364605542</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.7142857142857143</v>
       </c>
@@ -4387,7 +6268,7 @@
         <v>114.51236484526387</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.76190476190476186</v>
       </c>
@@ -4398,7 +6279,7 @@
         <v>71.919523410213884</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.80952380952380953</v>
       </c>
@@ -4409,7 +6290,7 @@
         <v>53.043173669827588</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.8571428571428571</v>
       </c>
@@ -4420,7 +6301,7 @@
         <v>46.191233032574978</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.90476190476190477</v>
       </c>
@@ -4431,7 +6312,7 @@
         <v>45.707184856931327</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.95238095238095233</v>
       </c>
